--- a/bots/crawl_ch/output/toilet_coop_2022-09-02.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-02.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1542,50 +1542,50 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 6x  72ST</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6x 72ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1605,60 +1605,60 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 6x  72ST 25% Aktion 17.70 Schweizer Franken statt 23.70 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 6x  72ST</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>6x 72ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 6x  72ST 25% Aktion 17.70 Schweizer Franken statt 23.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -2037,50 +2037,48 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6289143</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/oecoplan-papiertaschentuecher-special-edition-calendula-box-3x80-stueck/p/6289143</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+          <t>240ST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2090,7 +2088,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2100,58 +2098,60 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6289143</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/oecoplan-papiertaschentuecher-special-edition-calendula-box-3x80-stueck/p/6289143</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>240ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -2252,151 +2252,151 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>30ST</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>30ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-02 07:07:59</t>
+          <t>2022-09-02 21:00:15</t>
         </is>
       </c>
     </row>
